--- a/Newfolder/dsr/data/International_Parent_form_data.xlsx
+++ b/Newfolder/dsr/data/International_Parent_form_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83321330-BD50-40C6-B836-D29D2427D96A}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{127FB42E-0CD4-446D-A411-F0F3AAA5B23B}"/>
   <bookViews>
-    <workbookView xWindow="24180" yWindow="915" windowWidth="26250" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23835" yWindow="570" windowWidth="26250" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -229,22 +229,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -551,78 +552,79 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.42578125" customWidth="1"/>
+    <col min="1" max="4" width="18.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="30" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="46.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.42578125" style="4" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="R1" s="3" t="s">
@@ -630,264 +632,264 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4" t="s">
+      <c r="I2" s="5"/>
+      <c r="J2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="4" t="s">
+      <c r="N2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="4"/>
+      <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4" t="s">
+      <c r="I3" s="5"/>
+      <c r="J3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="4" t="s">
+      <c r="N3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="4"/>
+      <c r="R3" s="5"/>
     </row>
     <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4" t="s">
+      <c r="I4" s="5"/>
+      <c r="J4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q4" s="4" t="s">
+      <c r="N4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="4"/>
+      <c r="R4" s="5"/>
     </row>
     <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4" t="s">
+      <c r="I5" s="5"/>
+      <c r="J5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q5" s="4" t="s">
+      <c r="N5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R5" s="4"/>
+      <c r="R5" s="5"/>
     </row>
     <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4" t="s">
+      <c r="I6" s="5"/>
+      <c r="J6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q6" s="4" t="s">
+      <c r="N6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="4"/>
+      <c r="R6" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Newfolder/dsr/data/International_Parent_form_data.xlsx
+++ b/Newfolder/dsr/data/International_Parent_form_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{127FB42E-0CD4-446D-A411-F0F3AAA5B23B}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDD6E0C7-9CF3-40EF-B65F-F71111B90071}"/>
   <bookViews>
     <workbookView xWindow="23835" yWindow="570" windowWidth="26250" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="50">
   <si>
     <t>country</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>India</t>
+  </si>
+  <si>
+    <t>canada</t>
+  </si>
+  <si>
+    <t>cuba</t>
   </si>
 </sst>
 </file>
@@ -552,7 +558,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,7 +768,7 @@
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>10</v>
@@ -814,7 +820,7 @@
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>10</v>

--- a/Newfolder/dsr/data/International_Parent_form_data.xlsx
+++ b/Newfolder/dsr/data/International_Parent_form_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDD6E0C7-9CF3-40EF-B65F-F71111B90071}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3040AED9-DCFC-40FA-8932-CA86EFCB8D46}"/>
   <bookViews>
-    <workbookView xWindow="23835" yWindow="570" windowWidth="26250" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31290" yWindow="840" windowWidth="22830" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="49">
   <si>
     <t>country</t>
   </si>
@@ -146,9 +146,6 @@
   </si>
   <si>
     <t>Phone Number</t>
-  </si>
-  <si>
-    <t>inlinedatafordelete</t>
   </si>
   <si>
     <t>Parenttwo</t>
@@ -235,16 +232,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -555,33 +549,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="18.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="30" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="46.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.42578125" style="4" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="4" width="18.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="46.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -633,277 +626,580 @@
       <c r="Q1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="5" t="s">
+      <c r="N2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="5"/>
     </row>
-    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>43</v>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="5" t="s">
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="5" t="s">
+      <c r="N3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>44</v>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="5" t="s">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q4" s="5" t="s">
+      <c r="N4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="5"/>
     </row>
-    <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>45</v>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="5" t="s">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q5" s="5" t="s">
+      <c r="N5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R5" s="5"/>
     </row>
-    <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>46</v>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5" t="s">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q6" s="5" t="s">
+      <c r="N23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{3AC4CA19-13CB-4058-9B3D-FA65D9D12771}"/>
     <hyperlink ref="D2" r:id="rId2" xr:uid="{FE2E799B-0334-42CB-A88E-C1CB6157F2F9}"/>
     <hyperlink ref="D3:D6" r:id="rId3" display="palmone@mailinator.com" xr:uid="{55410B78-C96B-4D68-B38A-DB4C28FA53A2}"/>
+    <hyperlink ref="E21" r:id="rId4" xr:uid="{2DCB1BCA-D206-47DB-B3BB-28A625F93DAB}"/>
+    <hyperlink ref="D21" r:id="rId5" xr:uid="{E8AB14C6-6053-4AA1-835F-95F14C4E6F3C}"/>
+    <hyperlink ref="D22:D25" r:id="rId6" display="palmone@mailinator.com" xr:uid="{7256E420-4222-4052-8192-703BBFCEA438}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/Newfolder/dsr/data/International_Parent_form_data.xlsx
+++ b/Newfolder/dsr/data/International_Parent_form_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3040AED9-DCFC-40FA-8932-CA86EFCB8D46}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E08D227-E0C8-4EC6-8FC1-7770526E2A25}"/>
   <bookViews>
-    <workbookView xWindow="31290" yWindow="840" windowWidth="22830" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20670" yWindow="960" windowWidth="22830" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="51">
   <si>
     <t>country</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>cuba</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>First_Name_of parent_guardian</t>
   </si>
 </sst>
 </file>
@@ -549,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,7 +893,7 @@
         <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>31</v>
@@ -905,7 +911,7 @@
         <v>39</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>41</v>
@@ -984,210 +990,6 @@
       </c>
       <c r="Q21" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q22" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q24" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q25" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1197,9 +999,8 @@
     <hyperlink ref="D3:D6" r:id="rId3" display="palmone@mailinator.com" xr:uid="{55410B78-C96B-4D68-B38A-DB4C28FA53A2}"/>
     <hyperlink ref="E21" r:id="rId4" xr:uid="{2DCB1BCA-D206-47DB-B3BB-28A625F93DAB}"/>
     <hyperlink ref="D21" r:id="rId5" xr:uid="{E8AB14C6-6053-4AA1-835F-95F14C4E6F3C}"/>
-    <hyperlink ref="D22:D25" r:id="rId6" display="palmone@mailinator.com" xr:uid="{7256E420-4222-4052-8192-703BBFCEA438}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Newfolder/dsr/data/International_Parent_form_data.xlsx
+++ b/Newfolder/dsr/data/International_Parent_form_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E08D227-E0C8-4EC6-8FC1-7770526E2A25}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39F5222B-BD36-4147-A3D7-FB43218CD324}"/>
   <bookViews>
-    <workbookView xWindow="20670" yWindow="960" windowWidth="22830" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27585" yWindow="1350" windowWidth="22830" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="52">
   <si>
     <t>country</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>First_Name_of parent_guardian</t>
+  </si>
+  <si>
+    <t>11/8/2025</t>
   </si>
 </sst>
 </file>
@@ -558,7 +561,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,7 +967,7 @@
         <v>24</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4" t="s">

--- a/Newfolder/dsr/data/International_Parent_form_data.xlsx
+++ b/Newfolder/dsr/data/International_Parent_form_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39F5222B-BD36-4147-A3D7-FB43218CD324}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DB06CB2-F28E-4E73-92EC-F31BCE1EBCED}"/>
   <bookViews>
     <workbookView xWindow="27585" yWindow="1350" windowWidth="22830" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,7 +175,7 @@
     <t>First_Name_of parent_guardian</t>
   </si>
   <si>
-    <t>11/8/2025</t>
+    <t>11/8/2015</t>
   </si>
 </sst>
 </file>
@@ -561,7 +561,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Newfolder/dsr/data/International_Parent_form_data.xlsx
+++ b/Newfolder/dsr/data/International_Parent_form_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DB06CB2-F28E-4E73-92EC-F31BCE1EBCED}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9ACDA899-F925-41B3-96DF-0F1DAB31D1D2}"/>
   <bookViews>
-    <workbookView xWindow="27585" yWindow="1350" windowWidth="22830" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31635" yWindow="1185" windowWidth="22830" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="60">
   <si>
     <t>country</t>
   </si>
@@ -176,6 +176,30 @@
   </si>
   <si>
     <t>11/8/2015</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Parentthree</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>International</t>
   </si>
 </sst>
 </file>
@@ -558,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,10 +985,10 @@
         <v>8</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>51</v>
@@ -977,7 +1001,7 @@
         <v>10</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>12</v>
@@ -992,7 +1016,211 @@
         <v>13</v>
       </c>
       <c r="Q21" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="4" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1000,10 +1228,18 @@
     <hyperlink ref="E2" r:id="rId1" xr:uid="{3AC4CA19-13CB-4058-9B3D-FA65D9D12771}"/>
     <hyperlink ref="D2" r:id="rId2" xr:uid="{FE2E799B-0334-42CB-A88E-C1CB6157F2F9}"/>
     <hyperlink ref="D3:D6" r:id="rId3" display="palmone@mailinator.com" xr:uid="{55410B78-C96B-4D68-B38A-DB4C28FA53A2}"/>
-    <hyperlink ref="E21" r:id="rId4" xr:uid="{2DCB1BCA-D206-47DB-B3BB-28A625F93DAB}"/>
-    <hyperlink ref="D21" r:id="rId5" xr:uid="{E8AB14C6-6053-4AA1-835F-95F14C4E6F3C}"/>
+    <hyperlink ref="E24" r:id="rId4" xr:uid="{2DCB1BCA-D206-47DB-B3BB-28A625F93DAB}"/>
+    <hyperlink ref="D24" r:id="rId5" xr:uid="{E8AB14C6-6053-4AA1-835F-95F14C4E6F3C}"/>
+    <hyperlink ref="E21" r:id="rId6" xr:uid="{953A0ABB-B4BD-4496-A3D0-AAEF0BF09D84}"/>
+    <hyperlink ref="D21" r:id="rId7" xr:uid="{7E5888A7-BA95-4D76-BCA7-F73F2E05D3DC}"/>
+    <hyperlink ref="E22" r:id="rId8" xr:uid="{123C292E-2C13-411B-A41C-657ECD517092}"/>
+    <hyperlink ref="D22" r:id="rId9" xr:uid="{92344EC7-D1F4-4D22-B36F-14D8C147104C}"/>
+    <hyperlink ref="E23" r:id="rId10" xr:uid="{A026AB35-31F2-4367-A260-B4AAF8685D16}"/>
+    <hyperlink ref="D23" r:id="rId11" xr:uid="{CA88D615-87F7-4779-A1F7-8337E5D23815}"/>
+    <hyperlink ref="E25" r:id="rId12" xr:uid="{9172BF00-3CE9-474B-8D0A-8847FA632539}"/>
+    <hyperlink ref="D25" r:id="rId13" xr:uid="{21F19610-16F6-4A47-9ED7-9DFCA544193A}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/Newfolder/dsr/data/International_Parent_form_data.xlsx
+++ b/Newfolder/dsr/data/International_Parent_form_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9ACDA899-F925-41B3-96DF-0F1DAB31D1D2}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7A4092F-7FC6-4011-9D05-139C3F084C07}"/>
   <bookViews>
-    <workbookView xWindow="31635" yWindow="1185" windowWidth="22830" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27510" yWindow="45" windowWidth="22830" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="70">
   <si>
     <t>country</t>
   </si>
@@ -175,38 +175,76 @@
     <t>First_Name_of parent_guardian</t>
   </si>
   <si>
-    <t>11/8/2015</t>
-  </si>
-  <si>
     <t>Chennai</t>
   </si>
   <si>
-    <t>Parentthree</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>three</t>
-  </si>
-  <si>
-    <t>four</t>
-  </si>
-  <si>
-    <t>five</t>
-  </si>
-  <si>
-    <t>International</t>
+    <t>Intertesr</t>
+  </si>
+  <si>
+    <t>Intert</t>
+  </si>
+  <si>
+    <t>intertesr@mailinator.com</t>
+  </si>
+  <si>
+    <t>05/03/2015</t>
+  </si>
+  <si>
+    <t>Markt 100
+Apt 4
+Peer 3990</t>
+  </si>
+  <si>
+    <t>87654</t>
+  </si>
+  <si>
+    <t>05/03/2016</t>
+  </si>
+  <si>
+    <t>87655</t>
+  </si>
+  <si>
+    <t>Markt 100
+Apt 4
+Peer 3991</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t>87656</t>
+  </si>
+  <si>
+    <t>Markt 100
+Apt 4
+Peer 3992</t>
+  </si>
+  <si>
+    <t>05/03/2019</t>
+  </si>
+  <si>
+    <t>87658</t>
+  </si>
+  <si>
+    <t>Markt 100
+Apt 4
+Peer 3994</t>
+  </si>
+  <si>
+    <t>ParentINTERT</t>
+  </si>
+  <si>
+    <t>ParentINT</t>
+  </si>
+  <si>
+    <t>parentintertesr@mailinator.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +262,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -584,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:E20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,7 +638,7 @@
     <col min="5" max="5" width="30" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="3" customWidth="1"/>
     <col min="9" max="9" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="3" bestFit="1" customWidth="1"/>
@@ -968,43 +1012,43 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I21" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="I21" s="1"/>
       <c r="J21" s="4" t="s">
         <v>46</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>12</v>
+        <v>51</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>13</v>
@@ -1019,43 +1063,43 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I22" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="I22" s="1"/>
       <c r="J22" s="4" t="s">
         <v>46</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>12</v>
+        <v>51</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="N22" s="4" t="s">
         <v>13</v>
@@ -1070,43 +1114,43 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="H23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I23" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="I23" s="1"/>
       <c r="J23" s="4" t="s">
         <v>46</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>12</v>
+        <v>51</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="N23" s="4" t="s">
         <v>13</v>
@@ -1125,40 +1169,18 @@
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="1"/>
       <c r="N24" s="4" t="s">
         <v>13</v>
       </c>
@@ -1172,43 +1194,43 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I25" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="I25" s="1"/>
       <c r="J25" s="4" t="s">
         <v>46</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>12</v>
+        <v>51</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>13</v>
@@ -1224,22 +1246,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{3AC4CA19-13CB-4058-9B3D-FA65D9D12771}"/>
     <hyperlink ref="D2" r:id="rId2" xr:uid="{FE2E799B-0334-42CB-A88E-C1CB6157F2F9}"/>
     <hyperlink ref="D3:D6" r:id="rId3" display="palmone@mailinator.com" xr:uid="{55410B78-C96B-4D68-B38A-DB4C28FA53A2}"/>
-    <hyperlink ref="E24" r:id="rId4" xr:uid="{2DCB1BCA-D206-47DB-B3BB-28A625F93DAB}"/>
-    <hyperlink ref="D24" r:id="rId5" xr:uid="{E8AB14C6-6053-4AA1-835F-95F14C4E6F3C}"/>
-    <hyperlink ref="E21" r:id="rId6" xr:uid="{953A0ABB-B4BD-4496-A3D0-AAEF0BF09D84}"/>
-    <hyperlink ref="D21" r:id="rId7" xr:uid="{7E5888A7-BA95-4D76-BCA7-F73F2E05D3DC}"/>
-    <hyperlink ref="E22" r:id="rId8" xr:uid="{123C292E-2C13-411B-A41C-657ECD517092}"/>
-    <hyperlink ref="D22" r:id="rId9" xr:uid="{92344EC7-D1F4-4D22-B36F-14D8C147104C}"/>
-    <hyperlink ref="E23" r:id="rId10" xr:uid="{A026AB35-31F2-4367-A260-B4AAF8685D16}"/>
-    <hyperlink ref="D23" r:id="rId11" xr:uid="{CA88D615-87F7-4779-A1F7-8337E5D23815}"/>
-    <hyperlink ref="E25" r:id="rId12" xr:uid="{9172BF00-3CE9-474B-8D0A-8847FA632539}"/>
-    <hyperlink ref="D25" r:id="rId13" xr:uid="{21F19610-16F6-4A47-9ED7-9DFCA544193A}"/>
+    <hyperlink ref="E21" r:id="rId4" xr:uid="{B24B4AAA-6DA8-4208-A631-C6AC6D3891FB}"/>
+    <hyperlink ref="E22" r:id="rId5" xr:uid="{7D7DE044-3E7A-4F50-8ACE-6D0AD42F0616}"/>
+    <hyperlink ref="E23" r:id="rId6" xr:uid="{DAAA4CB5-714C-45DE-9279-8FF66A1A8EBA}"/>
+    <hyperlink ref="E25" r:id="rId7" xr:uid="{4391A31A-BC46-4003-BC20-6E5ADF5E7DD8}"/>
+    <hyperlink ref="D21" r:id="rId8" xr:uid="{8EB88F50-39B8-4ACF-BA8E-3853DF4CA3D5}"/>
+    <hyperlink ref="D22" r:id="rId9" xr:uid="{A39B9A3D-4BD7-409A-BFD6-CDD79594ADDC}"/>
+    <hyperlink ref="D23" r:id="rId10" xr:uid="{B8548377-9030-4E72-AC2C-1679411FF44E}"/>
+    <hyperlink ref="D25" r:id="rId11" xr:uid="{D2FA78D5-2A7E-4E1F-AEC4-756A4803B7AD}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/Newfolder/dsr/data/International_Parent_form_data.xlsx
+++ b/Newfolder/dsr/data/International_Parent_form_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7A4092F-7FC6-4011-9D05-139C3F084C07}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03329FF2-4EC4-4CA3-9514-17E75527B321}"/>
   <bookViews>
-    <workbookView xWindow="27510" yWindow="45" windowWidth="22830" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9690" yWindow="540" windowWidth="31125" windowHeight="14445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="124">
   <si>
     <t>country</t>
   </si>
@@ -176,18 +176,6 @@
   </si>
   <si>
     <t>Chennai</t>
-  </si>
-  <si>
-    <t>Intertesr</t>
-  </si>
-  <si>
-    <t>Intert</t>
-  </si>
-  <si>
-    <t>intertesr@mailinator.com</t>
-  </si>
-  <si>
-    <t>05/03/2015</t>
   </si>
   <si>
     <t>Markt 100
@@ -198,53 +186,221 @@
     <t>87654</t>
   </si>
   <si>
-    <t>05/03/2016</t>
-  </si>
-  <si>
     <t>87655</t>
   </si>
   <si>
-    <t>Markt 100
-Apt 4
-Peer 3991</t>
-  </si>
-  <si>
-    <t>05/03/2017</t>
-  </si>
-  <si>
     <t>87656</t>
   </si>
   <si>
-    <t>Markt 100
-Apt 4
-Peer 3992</t>
-  </si>
-  <si>
-    <t>05/03/2019</t>
-  </si>
-  <si>
     <t>87658</t>
   </si>
   <si>
-    <t>Markt 100
-Apt 4
-Peer 3994</t>
-  </si>
-  <si>
-    <t>ParentINTERT</t>
-  </si>
-  <si>
-    <t>ParentINT</t>
-  </si>
-  <si>
-    <t>parentintertesr@mailinator.com</t>
+    <t>ananya.sharma@mailinator.com</t>
+  </si>
+  <si>
+    <t>Ananya</t>
+  </si>
+  <si>
+    <t>Sharma</t>
+  </si>
+  <si>
+    <t>arjun.patel@mailinator.com</t>
+  </si>
+  <si>
+    <t>Arjun</t>
+  </si>
+  <si>
+    <t>Patel</t>
+  </si>
+  <si>
+    <t>priya.reddy@mailinator.com</t>
+  </si>
+  <si>
+    <t>Priya</t>
+  </si>
+  <si>
+    <t>Reddy</t>
+  </si>
+  <si>
+    <t>karan.singh@mailinator.com</t>
+  </si>
+  <si>
+    <t>Karan</t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>divya.nair@mailinator.com</t>
+  </si>
+  <si>
+    <t>Divya</t>
+  </si>
+  <si>
+    <t>Nair</t>
+  </si>
+  <si>
+    <t>05/03/2004</t>
+  </si>
+  <si>
+    <t>06/03/2004</t>
+  </si>
+  <si>
+    <t>07/03/2004</t>
+  </si>
+  <si>
+    <t>87657</t>
+  </si>
+  <si>
+    <t>100 test Street</t>
+  </si>
+  <si>
+    <t>101 test Street</t>
+  </si>
+  <si>
+    <t>102 test Street</t>
+  </si>
+  <si>
+    <t>103 test Street</t>
+  </si>
+  <si>
+    <t>Rajesh</t>
+  </si>
+  <si>
+    <t>rajesh.sharma.parent@mailinator.com</t>
+  </si>
+  <si>
+    <t>Meera</t>
+  </si>
+  <si>
+    <t>meera.patel.parent@mailinator.com</t>
+  </si>
+  <si>
+    <t>Venkata</t>
+  </si>
+  <si>
+    <t>venkata.reddy.parent@mailinator.com</t>
+  </si>
+  <si>
+    <t>Amarjeet</t>
+  </si>
+  <si>
+    <t>amarjeet.singh.parent@mailinator.com</t>
+  </si>
+  <si>
+    <t>Lakshmi</t>
+  </si>
+  <si>
+    <t>lakshmi.nair.parent@mailinator.com</t>
+  </si>
+  <si>
+    <t>rohan.mehta@mailinator.com</t>
+  </si>
+  <si>
+    <t>Rohan</t>
+  </si>
+  <si>
+    <t>Mehta</t>
+  </si>
+  <si>
+    <t>sneha.joshi@mailinator.com</t>
+  </si>
+  <si>
+    <t>Sneha</t>
+  </si>
+  <si>
+    <t>Joshi</t>
+  </si>
+  <si>
+    <t>amit.kumar@mailinator.com</t>
+  </si>
+  <si>
+    <t>Amit</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>neha.shah@mailinator.com</t>
+  </si>
+  <si>
+    <t>Neha</t>
+  </si>
+  <si>
+    <t>Shah</t>
+  </si>
+  <si>
+    <t>vikas.verma@mailinator.com</t>
+  </si>
+  <si>
+    <t>Vikas</t>
+  </si>
+  <si>
+    <t>Verma</t>
+  </si>
+  <si>
+    <t>Sunita</t>
+  </si>
+  <si>
+    <t>sunita.mehta.parent@mailinator.com</t>
+  </si>
+  <si>
+    <t>rajesh.joshi.parent@mailinator.com</t>
+  </si>
+  <si>
+    <t>Suman</t>
+  </si>
+  <si>
+    <t>suman.kumar.parent@mailinator.com</t>
+  </si>
+  <si>
+    <t>Manish</t>
+  </si>
+  <si>
+    <t>manish.shah.parent@mailinator.com</t>
+  </si>
+  <si>
+    <t>Poonam</t>
+  </si>
+  <si>
+    <t>poonam.verma.parent@mailinator.com</t>
+  </si>
+  <si>
+    <t>104 test Street</t>
+  </si>
+  <si>
+    <t>105 test Street</t>
+  </si>
+  <si>
+    <t>106 test Street</t>
+  </si>
+  <si>
+    <t>107 test Street</t>
+  </si>
+  <si>
+    <t>108 test Street</t>
+  </si>
+  <si>
+    <t>04/03/2007</t>
+  </si>
+  <si>
+    <t>05/02/2007</t>
+  </si>
+  <si>
+    <t>01/03/2007</t>
+  </si>
+  <si>
+    <t>05/09/2007</t>
+  </si>
+  <si>
+    <t>05/04/2007</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +428,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -281,7 +449,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -304,12 +472,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -323,6 +506,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -626,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,7 +1157,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -1012,43 +1210,43 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>53</v>
+      <c r="B21" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="4" t="s">
         <v>46</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>51</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>13</v>
@@ -1063,43 +1261,43 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>53</v>
+      <c r="B22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="4" t="s">
         <v>46</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>51</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="N22" s="4" t="s">
         <v>13</v>
@@ -1114,43 +1312,43 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>53</v>
+      <c r="B23" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="4" t="s">
         <v>46</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>51</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="N23" s="4" t="s">
         <v>13</v>
@@ -1165,22 +1363,44 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="B24" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="I24" s="1"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="1"/>
+      <c r="J24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="N24" s="4" t="s">
         <v>13</v>
       </c>
@@ -1194,43 +1414,43 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="B25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>53</v>
+      <c r="F25" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="4" t="s">
         <v>46</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>51</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>13</v>
@@ -1242,6 +1462,261 @@
         <v>13</v>
       </c>
       <c r="Q25" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q30" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1251,16 +1726,28 @@
     <hyperlink ref="E2" r:id="rId1" xr:uid="{3AC4CA19-13CB-4058-9B3D-FA65D9D12771}"/>
     <hyperlink ref="D2" r:id="rId2" xr:uid="{FE2E799B-0334-42CB-A88E-C1CB6157F2F9}"/>
     <hyperlink ref="D3:D6" r:id="rId3" display="palmone@mailinator.com" xr:uid="{55410B78-C96B-4D68-B38A-DB4C28FA53A2}"/>
-    <hyperlink ref="E21" r:id="rId4" xr:uid="{B24B4AAA-6DA8-4208-A631-C6AC6D3891FB}"/>
-    <hyperlink ref="E22" r:id="rId5" xr:uid="{7D7DE044-3E7A-4F50-8ACE-6D0AD42F0616}"/>
-    <hyperlink ref="E23" r:id="rId6" xr:uid="{DAAA4CB5-714C-45DE-9279-8FF66A1A8EBA}"/>
-    <hyperlink ref="E25" r:id="rId7" xr:uid="{4391A31A-BC46-4003-BC20-6E5ADF5E7DD8}"/>
-    <hyperlink ref="D21" r:id="rId8" xr:uid="{8EB88F50-39B8-4ACF-BA8E-3853DF4CA3D5}"/>
-    <hyperlink ref="D22" r:id="rId9" xr:uid="{A39B9A3D-4BD7-409A-BFD6-CDD79594ADDC}"/>
-    <hyperlink ref="D23" r:id="rId10" xr:uid="{B8548377-9030-4E72-AC2C-1679411FF44E}"/>
-    <hyperlink ref="D25" r:id="rId11" xr:uid="{D2FA78D5-2A7E-4E1F-AEC4-756A4803B7AD}"/>
+    <hyperlink ref="E21" r:id="rId4" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{7CF3DEF4-7D4C-4DAB-820B-911FD57F308B}"/>
+    <hyperlink ref="E22" r:id="rId5" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{6E20FD9F-048C-42F7-AB04-5D10C2E4BAEA}"/>
+    <hyperlink ref="E23" r:id="rId6" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{22246013-DA90-49D4-A8D0-FB01882932EB}"/>
+    <hyperlink ref="E24" r:id="rId7" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{FC8C3923-40F4-40D2-AB4D-015C9CA4DD18}"/>
+    <hyperlink ref="E25" r:id="rId8" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{7A6167D7-F666-433E-9D18-4A2BF98639CC}"/>
+    <hyperlink ref="D21" r:id="rId9" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{AE56529C-A31D-4D9A-8686-EFC35CF287BA}"/>
+    <hyperlink ref="D22" r:id="rId10" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{5ABBF32B-61AF-40F4-98AA-42309F5B7D45}"/>
+    <hyperlink ref="D23" r:id="rId11" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{0BB4A2E4-FE36-485D-935E-E0E22C638AF9}"/>
+    <hyperlink ref="D24" r:id="rId12" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{6E49C33D-8BA9-4287-8E27-A744AB07F64E}"/>
+    <hyperlink ref="D25" r:id="rId13" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{C558E308-C249-4A04-9F99-AE2F8CBAD4F6}"/>
+    <hyperlink ref="E26" r:id="rId14" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{8F6F515E-DEE6-45D9-B491-D00958F0CFE6}"/>
+    <hyperlink ref="E27" r:id="rId15" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{A7B5A8BB-70EA-4B16-A431-82563C9FDC08}"/>
+    <hyperlink ref="E28" r:id="rId16" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{1E4E8554-14D6-4A26-8C2E-E4ACA60AB4DE}"/>
+    <hyperlink ref="E29" r:id="rId17" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{0D06C262-2F8A-4A17-841D-E9C4DBCDADA9}"/>
+    <hyperlink ref="E30" r:id="rId18" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{193481A6-8DEA-44B7-970D-3AA6C9D4B1FD}"/>
+    <hyperlink ref="D26" r:id="rId19" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{C38581D5-5AD1-482E-9445-75C29B6BA67D}"/>
+    <hyperlink ref="D27" r:id="rId20" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{6A5C895D-1F8A-4C05-9525-D47B0E768055}"/>
+    <hyperlink ref="D28" r:id="rId21" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{D4BEC390-2B18-4B3B-AD1E-14274874F181}"/>
+    <hyperlink ref="D29" r:id="rId22" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{65E06DB4-A37C-4CB4-8040-95789D0B7182}"/>
+    <hyperlink ref="D30" r:id="rId23" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{01E0A74B-6FEE-4FCB-B8CC-103433592079}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
--- a/Newfolder/dsr/data/International_Parent_form_data.xlsx
+++ b/Newfolder/dsr/data/International_Parent_form_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03329FF2-4EC4-4CA3-9514-17E75527B321}"/>
+  <xr:revisionPtr revIDLastSave="200" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAF9AECF-15BC-46B4-AD01-F7BBDD6DAE1A}"/>
   <bookViews>
-    <workbookView xWindow="9690" yWindow="540" windowWidth="31125" windowHeight="14445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28785" yWindow="585" windowWidth="21315" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="75">
   <si>
     <t>country</t>
   </si>
@@ -175,26 +175,6 @@
     <t>First_Name_of parent_guardian</t>
   </si>
   <si>
-    <t>Chennai</t>
-  </si>
-  <si>
-    <t>Markt 100
-Apt 4
-Peer 3990</t>
-  </si>
-  <si>
-    <t>87654</t>
-  </si>
-  <si>
-    <t>87655</t>
-  </si>
-  <si>
-    <t>87656</t>
-  </si>
-  <si>
-    <t>87658</t>
-  </si>
-  <si>
     <t>ananya.sharma@mailinator.com</t>
   </si>
   <si>
@@ -204,66 +184,9 @@
     <t>Sharma</t>
   </si>
   <si>
-    <t>arjun.patel@mailinator.com</t>
-  </si>
-  <si>
-    <t>Arjun</t>
-  </si>
-  <si>
     <t>Patel</t>
   </si>
   <si>
-    <t>priya.reddy@mailinator.com</t>
-  </si>
-  <si>
-    <t>Priya</t>
-  </si>
-  <si>
-    <t>Reddy</t>
-  </si>
-  <si>
-    <t>karan.singh@mailinator.com</t>
-  </si>
-  <si>
-    <t>Karan</t>
-  </si>
-  <si>
-    <t>Singh</t>
-  </si>
-  <si>
-    <t>divya.nair@mailinator.com</t>
-  </si>
-  <si>
-    <t>Divya</t>
-  </si>
-  <si>
-    <t>Nair</t>
-  </si>
-  <si>
-    <t>05/03/2004</t>
-  </si>
-  <si>
-    <t>06/03/2004</t>
-  </si>
-  <si>
-    <t>07/03/2004</t>
-  </si>
-  <si>
-    <t>87657</t>
-  </si>
-  <si>
-    <t>100 test Street</t>
-  </si>
-  <si>
-    <t>101 test Street</t>
-  </si>
-  <si>
-    <t>102 test Street</t>
-  </si>
-  <si>
-    <t>103 test Street</t>
-  </si>
-  <si>
     <t>Rajesh</t>
   </si>
   <si>
@@ -276,131 +199,59 @@
     <t>meera.patel.parent@mailinator.com</t>
   </si>
   <si>
-    <t>Venkata</t>
-  </si>
-  <si>
-    <t>venkata.reddy.parent@mailinator.com</t>
-  </si>
-  <si>
-    <t>Amarjeet</t>
-  </si>
-  <si>
-    <t>amarjeet.singh.parent@mailinator.com</t>
-  </si>
-  <si>
-    <t>Lakshmi</t>
-  </si>
-  <si>
-    <t>lakshmi.nair.parent@mailinator.com</t>
-  </si>
-  <si>
-    <t>rohan.mehta@mailinator.com</t>
-  </si>
-  <si>
-    <t>Rohan</t>
-  </si>
-  <si>
     <t>Mehta</t>
   </si>
   <si>
-    <t>sneha.joshi@mailinator.com</t>
-  </si>
-  <si>
-    <t>Sneha</t>
-  </si>
-  <si>
-    <t>Joshi</t>
-  </si>
-  <si>
-    <t>amit.kumar@mailinator.com</t>
-  </si>
-  <si>
-    <t>Amit</t>
-  </si>
-  <si>
-    <t>Kumar</t>
-  </si>
-  <si>
-    <t>neha.shah@mailinator.com</t>
-  </si>
-  <si>
-    <t>Neha</t>
-  </si>
-  <si>
-    <t>Shah</t>
-  </si>
-  <si>
-    <t>vikas.verma@mailinator.com</t>
-  </si>
-  <si>
-    <t>Vikas</t>
-  </si>
-  <si>
-    <t>Verma</t>
-  </si>
-  <si>
     <t>Sunita</t>
   </si>
   <si>
     <t>sunita.mehta.parent@mailinator.com</t>
   </si>
   <si>
-    <t>rajesh.joshi.parent@mailinator.com</t>
-  </si>
-  <si>
-    <t>Suman</t>
-  </si>
-  <si>
-    <t>suman.kumar.parent@mailinator.com</t>
-  </si>
-  <si>
-    <t>Manish</t>
-  </si>
-  <si>
-    <t>manish.shah.parent@mailinator.com</t>
-  </si>
-  <si>
-    <t>Poonam</t>
-  </si>
-  <si>
-    <t>poonam.verma.parent@mailinator.com</t>
-  </si>
-  <si>
-    <t>104 test Street</t>
-  </si>
-  <si>
-    <t>105 test Street</t>
-  </si>
-  <si>
-    <t>106 test Street</t>
-  </si>
-  <si>
-    <t>107 test Street</t>
-  </si>
-  <si>
-    <t>108 test Street</t>
-  </si>
-  <si>
-    <t>04/03/2007</t>
-  </si>
-  <si>
-    <t>05/02/2007</t>
-  </si>
-  <si>
-    <t>01/03/2007</t>
-  </si>
-  <si>
-    <t>05/09/2007</t>
-  </si>
-  <si>
-    <t>05/04/2007</t>
+    <t>ishaan.patel@mailinator.com</t>
+  </si>
+  <si>
+    <t>Ishaan</t>
+  </si>
+  <si>
+    <t>08/15/2006</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>45 MG Road, Near Metro Station</t>
+  </si>
+  <si>
+    <t>Ahmedabad</t>
+  </si>
+  <si>
+    <t>204 Satellite Road, Vastrapur</t>
+  </si>
+  <si>
+    <t>12/05/2006</t>
+  </si>
+  <si>
+    <t>aditya.mehta@mailinator.com</t>
+  </si>
+  <si>
+    <t>Aditya</t>
+  </si>
+  <si>
+    <t>11/20/2006</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>101 FC Road, Shivajinagar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,6 +291,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -449,7 +306,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -472,54 +329,51 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -824,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,7 +1011,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -1210,43 +1064,43 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>59</v>
+        <v>51</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I21" s="1"/>
-      <c r="J21" s="4" t="s">
+      <c r="J21" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K21" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>52</v>
+      <c r="K21" s="7">
+        <v>560001</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>13</v>
@@ -1261,43 +1115,43 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>62</v>
+        <v>51</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="I22" s="1"/>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>76</v>
+      <c r="K22" s="7">
+        <v>560001</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="N22" s="4" t="s">
         <v>13</v>
@@ -1312,43 +1166,43 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="7">
+        <v>560001</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>77</v>
+      <c r="M23" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="N23" s="4" t="s">
         <v>13</v>
@@ -1363,43 +1217,43 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="7" t="s">
+      <c r="B24" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="10">
+        <v>380015</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M24" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="N24" s="4" t="s">
         <v>13</v>
@@ -1414,43 +1268,43 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="7" t="s">
+      <c r="B25" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>70</v>
-      </c>
       <c r="G25" s="10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>72</v>
       </c>
       <c r="I25" s="1"/>
-      <c r="J25" s="4" t="s">
+      <c r="J25" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K25" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>79</v>
+      <c r="K25" s="10">
+        <v>411004</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>13</v>
@@ -1462,292 +1316,20 @@
         <v>13</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q26" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="N27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q27" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="N28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q28" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="N30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q30" s="4" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{3AC4CA19-13CB-4058-9B3D-FA65D9D12771}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{FE2E799B-0334-42CB-A88E-C1CB6157F2F9}"/>
-    <hyperlink ref="D3:D6" r:id="rId3" display="palmone@mailinator.com" xr:uid="{55410B78-C96B-4D68-B38A-DB4C28FA53A2}"/>
-    <hyperlink ref="E21" r:id="rId4" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{7CF3DEF4-7D4C-4DAB-820B-911FD57F308B}"/>
-    <hyperlink ref="E22" r:id="rId5" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{6E20FD9F-048C-42F7-AB04-5D10C2E4BAEA}"/>
-    <hyperlink ref="E23" r:id="rId6" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{22246013-DA90-49D4-A8D0-FB01882932EB}"/>
-    <hyperlink ref="E24" r:id="rId7" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{FC8C3923-40F4-40D2-AB4D-015C9CA4DD18}"/>
-    <hyperlink ref="E25" r:id="rId8" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{7A6167D7-F666-433E-9D18-4A2BF98639CC}"/>
-    <hyperlink ref="D21" r:id="rId9" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{AE56529C-A31D-4D9A-8686-EFC35CF287BA}"/>
-    <hyperlink ref="D22" r:id="rId10" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{5ABBF32B-61AF-40F4-98AA-42309F5B7D45}"/>
-    <hyperlink ref="D23" r:id="rId11" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{0BB4A2E4-FE36-485D-935E-E0E22C638AF9}"/>
-    <hyperlink ref="D24" r:id="rId12" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{6E49C33D-8BA9-4287-8E27-A744AB07F64E}"/>
-    <hyperlink ref="D25" r:id="rId13" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{C558E308-C249-4A04-9F99-AE2F8CBAD4F6}"/>
-    <hyperlink ref="E26" r:id="rId14" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{8F6F515E-DEE6-45D9-B491-D00958F0CFE6}"/>
-    <hyperlink ref="E27" r:id="rId15" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{A7B5A8BB-70EA-4B16-A431-82563C9FDC08}"/>
-    <hyperlink ref="E28" r:id="rId16" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{1E4E8554-14D6-4A26-8C2E-E4ACA60AB4DE}"/>
-    <hyperlink ref="E29" r:id="rId17" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{0D06C262-2F8A-4A17-841D-E9C4DBCDADA9}"/>
-    <hyperlink ref="E30" r:id="rId18" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{193481A6-8DEA-44B7-970D-3AA6C9D4B1FD}"/>
-    <hyperlink ref="D26" r:id="rId19" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{C38581D5-5AD1-482E-9445-75C29B6BA67D}"/>
-    <hyperlink ref="D27" r:id="rId20" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{6A5C895D-1F8A-4C05-9525-D47B0E768055}"/>
-    <hyperlink ref="D28" r:id="rId21" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{D4BEC390-2B18-4B3B-AD1E-14274874F181}"/>
-    <hyperlink ref="D29" r:id="rId22" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{65E06DB4-A37C-4CB4-8040-95789D0B7182}"/>
-    <hyperlink ref="D30" r:id="rId23" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{01E0A74B-6FEE-4FCB-B8CC-103433592079}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{FE2E799B-0334-42CB-A88E-C1CB6157F2F9}"/>
+    <hyperlink ref="D3:D6" r:id="rId2" display="palmone@mailinator.com" xr:uid="{55410B78-C96B-4D68-B38A-DB4C28FA53A2}"/>
+    <hyperlink ref="D21" r:id="rId3" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{AE56529C-A31D-4D9A-8686-EFC35CF287BA}"/>
+    <hyperlink ref="D22" r:id="rId4" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{FC8CA7B2-0B24-481F-A405-F3D55981C0FF}"/>
+    <hyperlink ref="D23" r:id="rId5" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{5D5DD610-276B-4525-870D-2B9898CD8FCB}"/>
+    <hyperlink ref="D24" r:id="rId6" display="vscode-file://vscode-app/c:/Users/rgunalan/AppData/Local/Programs/Microsoft VS Code/resources/app/out/vs/code/electron-browser/workbench/workbench.html" xr:uid="{1032A993-2E20-47E6-88D0-AB8D2D48D8C6}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId24"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/Newfolder/dsr/data/International_Parent_form_data.xlsx
+++ b/Newfolder/dsr/data/International_Parent_form_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="200" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAF9AECF-15BC-46B4-AD01-F7BBDD6DAE1A}"/>
+  <xr:revisionPtr revIDLastSave="205" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55D07270-971B-42DD-9DC9-C40127119E69}"/>
   <bookViews>
-    <workbookView xWindow="28785" yWindow="585" windowWidth="21315" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8370" yWindow="1920" windowWidth="24525" windowHeight="12855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -214,9 +214,6 @@
     <t>Ishaan</t>
   </si>
   <si>
-    <t>08/15/2006</t>
-  </si>
-  <si>
     <t>Bangalore</t>
   </si>
   <si>
@@ -229,22 +226,25 @@
     <t>204 Satellite Road, Vastrapur</t>
   </si>
   <si>
-    <t>12/05/2006</t>
-  </si>
-  <si>
     <t>aditya.mehta@mailinator.com</t>
   </si>
   <si>
     <t>Aditya</t>
   </si>
   <si>
-    <t>11/20/2006</t>
-  </si>
-  <si>
     <t>Pune</t>
   </si>
   <si>
     <t>101 FC Road, Shivajinagar</t>
+  </si>
+  <si>
+    <t>08/15/2004</t>
+  </si>
+  <si>
+    <t>12/05/2004</t>
+  </si>
+  <si>
+    <t>11/20/2004</t>
   </si>
 </sst>
 </file>
@@ -334,33 +334,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -371,9 +371,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -681,7 +678,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A16" sqref="A1:XFD1048576"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,7 +1084,7 @@
         <v>53</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="7" t="s">
@@ -1097,10 +1094,10 @@
         <v>560001</v>
       </c>
       <c r="L21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M21" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>13</v>
@@ -1138,7 +1135,7 @@
         <v>53</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="7" t="s">
@@ -1148,10 +1145,10 @@
         <v>560001</v>
       </c>
       <c r="L22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M22" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="N22" s="4" t="s">
         <v>13</v>
@@ -1189,7 +1186,7 @@
         <v>53</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="7" t="s">
@@ -1199,10 +1196,10 @@
         <v>560001</v>
       </c>
       <c r="L23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M23" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="N23" s="4" t="s">
         <v>13</v>
@@ -1240,7 +1237,7 @@
         <v>54</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="10" t="s">
@@ -1250,10 +1247,10 @@
         <v>380015</v>
       </c>
       <c r="L24" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M24" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="M24" s="10" t="s">
-        <v>68</v>
       </c>
       <c r="N24" s="4" t="s">
         <v>13</v>
@@ -1281,17 +1278,17 @@
       <c r="D25" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>70</v>
+      <c r="E25" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>59</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="10" t="s">
@@ -1301,10 +1298,10 @@
         <v>411004</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>13</v>

--- a/Newfolder/dsr/data/International_Parent_form_data.xlsx
+++ b/Newfolder/dsr/data/International_Parent_form_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="205" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55D07270-971B-42DD-9DC9-C40127119E69}"/>
+  <xr:revisionPtr revIDLastSave="213" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35F3164F-CABD-471C-8760-8D4A43709D1B}"/>
   <bookViews>
-    <workbookView xWindow="8370" yWindow="1920" windowWidth="24525" windowHeight="12855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5430" yWindow="1200" windowWidth="24525" windowHeight="12855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -238,13 +238,13 @@
     <t>101 FC Road, Shivajinagar</t>
   </si>
   <si>
-    <t>08/15/2004</t>
-  </si>
-  <si>
-    <t>12/05/2004</t>
-  </si>
-  <si>
-    <t>11/20/2004</t>
+    <t>08/15/2014</t>
+  </si>
+  <si>
+    <t>12/05/2014</t>
+  </si>
+  <si>
+    <t>11/20/2014</t>
   </si>
 </sst>
 </file>
@@ -334,43 +334,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -678,7 +675,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="A16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,66 +698,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -805,13 +802,13 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -856,13 +853,13 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -907,13 +904,13 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -958,13 +955,13 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -1009,60 +1006,60 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="L20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="N20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="O20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P20" s="2" t="s">
+      <c r="P20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Q20" s="2" t="s">
+      <c r="Q20" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -1071,10 +1068,10 @@
       <c r="C21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>51</v>
       </c>
       <c r="F21" s="7" t="s">
@@ -1086,7 +1083,7 @@
       <c r="H21" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I21" s="1"/>
+      <c r="I21" s="2"/>
       <c r="J21" s="7" t="s">
         <v>46</v>
       </c>
@@ -1113,7 +1110,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -1122,10 +1119,10 @@
       <c r="C22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>51</v>
       </c>
       <c r="F22" s="7" t="s">
@@ -1137,7 +1134,7 @@
       <c r="H22" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I22" s="1"/>
+      <c r="I22" s="2"/>
       <c r="J22" s="7" t="s">
         <v>46</v>
       </c>
@@ -1164,7 +1161,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -1173,10 +1170,10 @@
       <c r="C23" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="8" t="s">
         <v>51</v>
       </c>
       <c r="F23" s="7" t="s">
@@ -1188,7 +1185,7 @@
       <c r="H23" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I23" s="1"/>
+      <c r="I23" s="2"/>
       <c r="J23" s="7" t="s">
         <v>46</v>
       </c>
@@ -1215,41 +1212,41 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="9" t="s">
         <v>54</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="10" t="s">
+      <c r="I24" s="2"/>
+      <c r="J24" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="9">
         <v>380015</v>
       </c>
-      <c r="L24" s="10" t="s">
+      <c r="L24" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="M24" s="10" t="s">
+      <c r="M24" s="9" t="s">
         <v>67</v>
       </c>
       <c r="N24" s="4" t="s">
@@ -1266,41 +1263,41 @@
       </c>
     </row>
     <row r="25" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="9" t="s">
         <v>59</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="10" t="s">
+      <c r="I25" s="2"/>
+      <c r="J25" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K25" s="9">
         <v>411004</v>
       </c>
-      <c r="L25" s="10" t="s">
+      <c r="L25" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="M25" s="10" t="s">
+      <c r="M25" s="9" t="s">
         <v>71</v>
       </c>
       <c r="N25" s="4" t="s">
